--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13295.54478291626</v>
+        <v>-23108.30084435745</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31532840.35756282</v>
+        <v>31504206.71973113</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13720206.67736279</v>
+        <v>13542700.87768778</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2998944.333270223</v>
+        <v>3086882.519511797</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>15.05805425947912</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="H2" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -752,58 +752,58 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="I3" t="n">
-        <v>10.66564216510812</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2667969731648991</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.330695053476184</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>18.21830727030011</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.536891551628976</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.50979349205136</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>18.21830727030011</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="U6" t="n">
-        <v>18.21830727030011</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.706151199248216</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.5891238419305889</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5891238419305889</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>23.50971295904437</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.152398102006444</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1585647136001427</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.11143217127993</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.284960187439756</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="T8" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>23.50971295904437</v>
       </c>
       <c r="U9" t="n">
+        <v>20.70735517432628</v>
+      </c>
+      <c r="V9" t="n">
         <v>23.50971295904437</v>
-      </c>
-      <c r="V9" t="n">
-        <v>20.70735517432627</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.183833028195926</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="D11" t="n">
-        <v>26.84053729111534</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.59291375621575</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>26.84053729111534</v>
+        <v>64.14219208912756</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.485091266345599</v>
+        <v>76.72452921209067</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>77.59291375621581</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.73465952076845</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.105877770346851</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="V14" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
     </row>
     <row r="15">
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>26.8405372911153</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>30.47290791452692</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="G15" t="n">
-        <v>30.47290791452692</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="H15" t="n">
-        <v>30.47290791452692</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>12.88371534270423</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>88.09368046800157</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>76.72452921209067</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.485091266345517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>85.55513282065145</v>
       </c>
       <c r="D17" t="n">
         <v>191.255994400369</v>
@@ -1858,7 +1858,7 @@
         <v>191.255994400369</v>
       </c>
       <c r="G17" t="n">
-        <v>168.4582798678451</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8889700571583</v>
+        <v>174.806680128031</v>
       </c>
       <c r="V18" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="W18" t="n">
-        <v>183.1737044712416</v>
+        <v>191.255994400369</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>26.47880521537898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>56.30636661852062</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>85.55513282065151</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="F20" t="n">
-        <v>168.458279867845</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>191.2559944003689</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>191.2559944003689</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>191.2559944003689</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>116.3308444476703</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.63376431607153</v>
+        <v>58.47583568036073</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>117.0614064493727</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>47.5916431325628</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>26.47880521537898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2329,13 +2329,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>378.3461633649068</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>208.2195540226089</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H24" t="n">
         <v>41.04430296570798</v>
@@ -2459,7 +2459,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W24" t="n">
-        <v>194.556163395115</v>
+        <v>194.5561633951153</v>
       </c>
       <c r="X24" t="n">
         <v>161.8425727710037</v>
@@ -2487,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>51.89608664422939</v>
+        <v>106.7151467774206</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2569,10 +2569,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>300.7229257139726</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>96.69360301501183</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.777595832605</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>136.5646772823318</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4.842599992058571</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>193.9699189474566</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T30" t="n">
-        <v>135.5372539824025</v>
+        <v>135.5372539824023</v>
       </c>
       <c r="U30" t="n">
         <v>182.8401460722872</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>121.5118370257999</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>169.7775958326054</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.012519220714</v>
+        <v>326.7764334788695</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>63.16521771570375</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3097,7 +3097,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>137.8119736320464</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>124.6617896714841</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>350.754532503837</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>14.42487665119433</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3398,7 +3398,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T36" t="n">
-        <v>135.5372539824023</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U36" t="n">
         <v>182.8401460722872</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>69.51985944820009</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>106.2817175036581</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>198.5021641063469</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>113.3839026025151</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3599,7 +3599,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04430296570793</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>182.8401460722872</v>
       </c>
       <c r="V39" t="n">
-        <v>202.9234074721264</v>
+        <v>202.9234074721265</v>
       </c>
       <c r="W39" t="n">
         <v>194.556163395115</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>75.42313228159907</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
         <v>133.2527378018481</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>199.2067799702815</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>397.6291316271716</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>58.0445932197025</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3872,7 +3872,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T42" t="n">
-        <v>135.5372539824023</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U42" t="n">
         <v>182.8401460722872</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
-        <v>156.2494160550633</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>34.73120273434481</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>83.12450490415073</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,7 +3994,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>31.14768584588299</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7726969380732</v>
+        <v>204.7076859517747</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>60.2322170379165</v>
+      </c>
+      <c r="C2" t="n">
         <v>45.02206122026082</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.81190540260513</v>
       </c>
       <c r="D2" t="n">
         <v>29.81190540260513</v>
       </c>
       <c r="E2" t="n">
-        <v>29.81190540260513</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="F2" t="n">
-        <v>29.81190540260513</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="G2" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H2" t="n">
-        <v>14.60174958494945</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I2" t="n">
         <v>1.20464434075833</v>
@@ -4333,19 +4333,19 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K2" t="n">
-        <v>3.44233071783488</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L2" t="n">
-        <v>12.21491484027814</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M2" t="n">
-        <v>27.12238855716245</v>
+        <v>27.12238855716246</v>
       </c>
       <c r="N2" t="n">
-        <v>42.02986227404678</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O2" t="n">
-        <v>54.87532469310606</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P2" t="n">
         <v>60.2322170379165</v>
@@ -4357,25 +4357,25 @@
         <v>60.2322170379165</v>
       </c>
       <c r="S2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="T2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="U2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="V2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="W2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="X2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.45766797485141</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C3" t="n">
-        <v>27.45766797485141</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="D3" t="n">
-        <v>27.45766797485141</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="E3" t="n">
-        <v>27.45766797485141</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="F3" t="n">
-        <v>27.45766797485141</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="G3" t="n">
-        <v>27.45766797485141</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H3" t="n">
-        <v>12.24751215719573</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I3" t="n">
-        <v>1.474136232844087</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J3" t="n">
         <v>1.20464434075833</v>
       </c>
       <c r="K3" t="n">
-        <v>4.598115868451898</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L3" t="n">
-        <v>16.68847005554573</v>
+        <v>7.00073257972241</v>
       </c>
       <c r="M3" t="n">
-        <v>31.59594377243006</v>
+        <v>21.90820629660674</v>
       </c>
       <c r="N3" t="n">
-        <v>46.5034174893144</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O3" t="n">
         <v>51.54902890335264</v>
@@ -4430,31 +4430,31 @@
         <v>60.2322170379165</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.87797961016278</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R3" t="n">
-        <v>57.87797961016278</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S3" t="n">
-        <v>57.87797961016278</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T3" t="n">
-        <v>57.87797961016278</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="U3" t="n">
-        <v>42.66782379250709</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="V3" t="n">
-        <v>42.66782379250709</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="W3" t="n">
-        <v>42.66782379250709</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="X3" t="n">
-        <v>27.45766797485141</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.45766797485141</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="4">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>54.47089850513973</v>
+      </c>
+      <c r="C5" t="n">
+        <v>54.47089850513973</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.26212573374545</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.26212573374545</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38.26212573374545</v>
+      </c>
+      <c r="G5" t="n">
         <v>19.85979515768473</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.85979515768473</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.85979515768473</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.85979515768473</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.85979515768473</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.457464581624009</v>
       </c>
       <c r="H5" t="n">
         <v>1.457464581624009</v>
@@ -4570,16 +4570,16 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992266</v>
+        <v>5.21909947599228</v>
       </c>
       <c r="L5" t="n">
         <v>15.88227649088182</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886391</v>
+        <v>32.89339907886392</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646102</v>
+        <v>50.92952327646103</v>
       </c>
       <c r="O5" t="n">
         <v>65.79354395927301</v>
@@ -4588,31 +4588,31 @@
         <v>72.87322908120045</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.3107123623833</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R5" t="n">
-        <v>56.66445630980617</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S5" t="n">
-        <v>38.26212573374545</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T5" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U5" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="V5" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="W5" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="X5" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="C6" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="D6" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="E6" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="F6" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="G6" t="n">
         <v>1.457464581624009</v>
@@ -4658,10 +4658,10 @@
         <v>37.4042989454709</v>
       </c>
       <c r="N6" t="n">
-        <v>55.44042314306801</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O6" t="n">
-        <v>71.69888962564613</v>
+        <v>62.96599962173947</v>
       </c>
       <c r="P6" t="n">
         <v>72.87322908120045</v>
@@ -4670,28 +4670,28 @@
         <v>72.87322908120045</v>
       </c>
       <c r="R6" t="n">
-        <v>59.39794236965285</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S6" t="n">
-        <v>40.99561179359213</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T6" t="n">
-        <v>22.59328121753141</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U6" t="n">
-        <v>4.190950641470693</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="V6" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="W6" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="X6" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="C7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="D7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="E7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="F7" t="n">
         <v>1.457464581624009</v>
@@ -4746,31 +4746,31 @@
         <v>2.052539169432685</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="R7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="S7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="T7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="U7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="V7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="W7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="X7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.044815523598746</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="C8" t="n">
-        <v>3.044815523598746</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="D8" t="n">
-        <v>3.044815523598746</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="E8" t="n">
-        <v>3.044815523598746</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="F8" t="n">
-        <v>3.044815523598746</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G8" t="n">
-        <v>3.044815523598746</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H8" t="n">
-        <v>3.044815523598746</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I8" t="n">
-        <v>3.044815523598746</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J8" t="n">
         <v>1.88077703672355</v>
       </c>
       <c r="K8" t="n">
-        <v>8.415911685442891</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L8" t="n">
-        <v>22.51986039522946</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M8" t="n">
-        <v>43.35950445951392</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N8" t="n">
-        <v>65.28609961349596</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O8" t="n">
-        <v>83.82378169965433</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P8" t="n">
-        <v>94.03885183617749</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q8" t="n">
-        <v>93.8786854588036</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R8" t="n">
-        <v>79.62471356862186</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S8" t="n">
-        <v>74.28636994494533</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="T8" t="n">
-        <v>50.5391851378298</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="U8" t="n">
-        <v>26.79200033071427</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="V8" t="n">
-        <v>26.79200033071427</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="W8" t="n">
-        <v>26.79200033071427</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="X8" t="n">
-        <v>26.79200033071427</v>
+        <v>73.12233145807014</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.79200033071427</v>
+        <v>73.12233145807014</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="C9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="D9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="E9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="F9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="G9" t="n">
         <v>1.88077703672355</v>
@@ -4886,49 +4886,49 @@
         <v>1.88077703672355</v>
       </c>
       <c r="K9" t="n">
-        <v>1.88077703672355</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L9" t="n">
-        <v>17.89592671708687</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M9" t="n">
-        <v>39.73034208625465</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N9" t="n">
-        <v>62.86984279257507</v>
+        <v>62.86984279257508</v>
       </c>
       <c r="O9" t="n">
-        <v>81.90393668038411</v>
+        <v>81.90393668038412</v>
       </c>
       <c r="P9" t="n">
-        <v>94.03885183617749</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.03885183617749</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R9" t="n">
-        <v>94.03885183617749</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S9" t="n">
-        <v>70.29166702906195</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T9" t="n">
-        <v>46.54448222194642</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="U9" t="n">
-        <v>22.7972974148309</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="V9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="W9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="X9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
     </row>
     <row r="10">
@@ -4953,10 +4953,10 @@
         <v>5.096769994497212</v>
       </c>
       <c r="G10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I10" t="n">
         <v>1.88077703672355</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.33020152775036</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="C11" t="n">
-        <v>29.5494864625716</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="D11" t="n">
-        <v>2.437832633162158</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="E11" t="n">
-        <v>2.437832633162158</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="F11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="G11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J11" t="n">
-        <v>3.417978136102533</v>
+        <v>24.78252049490589</v>
       </c>
       <c r="K11" t="n">
-        <v>13.13197138347077</v>
+        <v>59.60773643878166</v>
       </c>
       <c r="L11" t="n">
-        <v>31.17957527878673</v>
+        <v>108.8080325753178</v>
       </c>
       <c r="M11" t="n">
-        <v>56.40729559797725</v>
+        <v>168.6991254940436</v>
       </c>
       <c r="N11" t="n">
-        <v>82.79297066826217</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O11" t="n">
-        <v>105.5412354747657</v>
+        <v>286.3185995386594</v>
       </c>
       <c r="P11" t="n">
-        <v>119.3499405478293</v>
+        <v>328.5150307030227</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="X11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.11091659292913</v>
+        <v>352.3747218720061</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="C12" t="n">
-        <v>91.11091659292913</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="D12" t="n">
-        <v>60.33020152775036</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="E12" t="n">
-        <v>29.5494864625716</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="F12" t="n">
-        <v>2.437832633162158</v>
+        <v>146.4961158919208</v>
       </c>
       <c r="G12" t="n">
-        <v>2.437832633162158</v>
+        <v>57.51260026767678</v>
       </c>
       <c r="H12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J12" t="n">
-        <v>2.437832633162158</v>
+        <v>14.55245432966377</v>
       </c>
       <c r="K12" t="n">
-        <v>10.90930567516434</v>
+        <v>40.07978517569843</v>
       </c>
       <c r="L12" t="n">
-        <v>29.82765956255555</v>
+        <v>81.93184470419641</v>
       </c>
       <c r="M12" t="n">
-        <v>55.04997730602895</v>
+        <v>133.9167152178292</v>
       </c>
       <c r="N12" t="n">
-        <v>83.28125954763223</v>
+        <v>189.6188753669568</v>
       </c>
       <c r="O12" t="n">
-        <v>105.4966506502406</v>
+        <v>236.9647528833238</v>
       </c>
       <c r="P12" t="n">
-        <v>120.1848372890272</v>
+        <v>271.8223704119701</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="R12" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="S12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="T12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="U12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="V12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="W12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="X12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112415</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="C13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="D13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="E13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="F13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="G13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="H13" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I13" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J13" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="K13" t="n">
-        <v>2.437832633162158</v>
+        <v>15.06648958421998</v>
       </c>
       <c r="L13" t="n">
-        <v>4.393946466374034</v>
+        <v>30.18773465530781</v>
       </c>
       <c r="M13" t="n">
-        <v>6.985865225902416</v>
+        <v>46.66043841756915</v>
       </c>
       <c r="N13" t="n">
-        <v>10.79300191026905</v>
+        <v>64.01830606238374</v>
       </c>
       <c r="O13" t="n">
-        <v>11.00863189209711</v>
+        <v>76.75022933554698</v>
       </c>
       <c r="P13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="R13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="S13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="T13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="U13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="V13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="W13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="X13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.38193315919089</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="C14" t="n">
-        <v>23.38193315919089</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="D14" t="n">
-        <v>23.38193315919089</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="E14" t="n">
-        <v>23.38193315919089</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="F14" t="n">
-        <v>23.38193315919089</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="G14" t="n">
-        <v>23.38193315919089</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="H14" t="n">
-        <v>23.38193315919089</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="I14" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="J14" t="n">
-        <v>3.417978136102533</v>
+        <v>24.78252049490584</v>
       </c>
       <c r="K14" t="n">
-        <v>13.13197138347073</v>
+        <v>59.60773643878179</v>
       </c>
       <c r="L14" t="n">
-        <v>31.17957527878664</v>
+        <v>108.808032575318</v>
       </c>
       <c r="M14" t="n">
-        <v>56.40729559797712</v>
+        <v>168.6991254940437</v>
       </c>
       <c r="N14" t="n">
-        <v>82.79297066826202</v>
+        <v>230.3090627719647</v>
       </c>
       <c r="O14" t="n">
-        <v>105.5412354747655</v>
+        <v>286.3185995386596</v>
       </c>
       <c r="P14" t="n">
-        <v>119.349940547829</v>
+        <v>328.5150307030227</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.8916316581077</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8916316581077</v>
+        <v>352.3747218720063</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8916316581077</v>
+        <v>263.3912062477623</v>
       </c>
       <c r="T14" t="n">
-        <v>121.8916316581077</v>
+        <v>263.3912062477623</v>
       </c>
       <c r="U14" t="n">
-        <v>115.724078354727</v>
+        <v>174.4076906235183</v>
       </c>
       <c r="V14" t="n">
-        <v>84.9433632895483</v>
+        <v>174.4076906235183</v>
       </c>
       <c r="W14" t="n">
-        <v>54.16264822436959</v>
+        <v>174.4076906235183</v>
       </c>
       <c r="X14" t="n">
-        <v>23.38193315919089</v>
+        <v>174.4076906235183</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.38193315919089</v>
+        <v>85.42417499927427</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.8916316581077</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="C15" t="n">
-        <v>121.8916316581077</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="D15" t="n">
-        <v>121.8916316581077</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="E15" t="n">
-        <v>94.77997782869828</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="F15" t="n">
-        <v>63.99926276351957</v>
+        <v>96.03101006168413</v>
       </c>
       <c r="G15" t="n">
-        <v>33.21854769834086</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="H15" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="I15" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="J15" t="n">
-        <v>2.437832633162154</v>
+        <v>14.55245432966377</v>
       </c>
       <c r="K15" t="n">
-        <v>10.90930567516432</v>
+        <v>40.07978517569844</v>
       </c>
       <c r="L15" t="n">
-        <v>29.82765956255548</v>
+        <v>81.93184470419641</v>
       </c>
       <c r="M15" t="n">
-        <v>55.04997730602884</v>
+        <v>133.9167152178292</v>
       </c>
       <c r="N15" t="n">
-        <v>83.2812595476321</v>
+        <v>189.6188753669568</v>
       </c>
       <c r="O15" t="n">
-        <v>105.4966506502404</v>
+        <v>236.9647528833238</v>
       </c>
       <c r="P15" t="n">
-        <v>120.184837289027</v>
+        <v>271.8223704119701</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.8916316581077</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="R15" t="n">
-        <v>121.8916316581077</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="S15" t="n">
-        <v>121.8916316581077</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="T15" t="n">
-        <v>121.8916316581077</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="U15" t="n">
-        <v>121.8916316581077</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="V15" t="n">
-        <v>121.8916316581077</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="W15" t="n">
-        <v>121.8916316581077</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="X15" t="n">
-        <v>121.8916316581077</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.8916316581077</v>
+        <v>185.0145256859281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.437832633162154</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="C16" t="n">
-        <v>2.437832633162154</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="D16" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="E16" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="F16" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="G16" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="H16" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="I16" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="J16" t="n">
-        <v>2.437832633162154</v>
+        <v>7.047494437440125</v>
       </c>
       <c r="K16" t="n">
-        <v>2.437832633162154</v>
+        <v>15.06648958421998</v>
       </c>
       <c r="L16" t="n">
-        <v>4.393946466374008</v>
+        <v>30.18773465530781</v>
       </c>
       <c r="M16" t="n">
-        <v>6.985865225902369</v>
+        <v>46.66043841756915</v>
       </c>
       <c r="N16" t="n">
-        <v>10.79300191026898</v>
+        <v>64.01830606238374</v>
       </c>
       <c r="O16" t="n">
-        <v>11.00863189209702</v>
+        <v>76.75022933554698</v>
       </c>
       <c r="P16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="R16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="S16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="T16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="U16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="V16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="W16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="X16" t="n">
-        <v>11.00863189209702</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.437832633162154</v>
+        <v>84.54701889409738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="C17" t="n">
-        <v>765.023977601476</v>
+        <v>594.8640989470871</v>
       </c>
       <c r="D17" t="n">
-        <v>571.8361044697901</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="E17" t="n">
-        <v>378.6482313381043</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="F17" t="n">
-        <v>185.4603582064185</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G17" t="n">
         <v>15.30047955202952</v>
@@ -5515,25 +5515,25 @@
         <v>15.30047955202952</v>
       </c>
       <c r="J17" t="n">
-        <v>61.4717287555294</v>
+        <v>61.47172875552918</v>
       </c>
       <c r="K17" t="n">
-        <v>138.9154718648988</v>
+        <v>138.9154718648985</v>
       </c>
       <c r="L17" t="n">
-        <v>240.9878195381909</v>
+        <v>240.9878195381906</v>
       </c>
       <c r="M17" t="n">
-        <v>359.7092571452452</v>
+        <v>359.7092571452449</v>
       </c>
       <c r="N17" t="n">
-        <v>481.1014755937836</v>
+        <v>481.1014755937833</v>
       </c>
       <c r="O17" t="n">
-        <v>593.5617252439827</v>
+        <v>593.5617252439823</v>
       </c>
       <c r="P17" t="n">
-        <v>683.9375338210159</v>
+        <v>683.9375338210158</v>
       </c>
       <c r="Q17" t="n">
         <v>743.97793094751</v>
@@ -5542,25 +5542,25 @@
         <v>765.023977601476</v>
       </c>
       <c r="S17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="T17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="U17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="V17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="W17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="X17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.023977601476</v>
+        <v>681.2834250285532</v>
       </c>
     </row>
     <row r="18">
@@ -5627,10 +5627,10 @@
         <v>578.2486299851295</v>
       </c>
       <c r="U18" t="n">
-        <v>393.5122965940604</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="V18" t="n">
-        <v>200.3244234623746</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="W18" t="n">
         <v>15.30047955202952</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="C19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="D19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="E19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="F19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="G19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="H19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="I19" t="n">
         <v>15.30047955202952</v>
@@ -5700,25 +5700,25 @@
         <v>235.2346205780376</v>
       </c>
       <c r="S19" t="n">
-        <v>72.175597348515</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="T19" t="n">
-        <v>72.175597348515</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="U19" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="V19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="W19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="X19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.30047955202952</v>
+        <v>42.04674744635173</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.6482313381042</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="C20" t="n">
-        <v>378.6482313381042</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="D20" t="n">
-        <v>378.6482313381042</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="E20" t="n">
-        <v>378.6482313381042</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="F20" t="n">
-        <v>208.4883526837153</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G20" t="n">
-        <v>208.4883526837153</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H20" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I20" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="J20" t="n">
-        <v>61.47172875552911</v>
+        <v>61.47172875552928</v>
       </c>
       <c r="K20" t="n">
-        <v>138.9154718648984</v>
+        <v>138.9154718648986</v>
       </c>
       <c r="L20" t="n">
-        <v>240.9878195381905</v>
+        <v>240.9878195381907</v>
       </c>
       <c r="M20" t="n">
-        <v>359.7092571452448</v>
+        <v>359.709257145245</v>
       </c>
       <c r="N20" t="n">
-        <v>481.1014755937832</v>
+        <v>481.1014755937834</v>
       </c>
       <c r="O20" t="n">
-        <v>593.5617252439822</v>
+        <v>593.5617252439824</v>
       </c>
       <c r="P20" t="n">
-        <v>683.9375338210154</v>
+        <v>683.9375338210158</v>
       </c>
       <c r="Q20" t="n">
-        <v>743.9779309475095</v>
+        <v>743.97793094751</v>
       </c>
       <c r="R20" t="n">
-        <v>765.0239776014756</v>
+        <v>765.023977601476</v>
       </c>
       <c r="S20" t="n">
-        <v>765.0239776014756</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="T20" t="n">
-        <v>765.0239776014756</v>
+        <v>681.2834250285532</v>
       </c>
       <c r="U20" t="n">
-        <v>765.0239776014756</v>
+        <v>488.0955518968674</v>
       </c>
       <c r="V20" t="n">
-        <v>765.0239776014756</v>
+        <v>488.0955518968674</v>
       </c>
       <c r="W20" t="n">
-        <v>571.8361044697899</v>
+        <v>488.0955518968674</v>
       </c>
       <c r="X20" t="n">
-        <v>378.6482313381042</v>
+        <v>488.0955518968674</v>
       </c>
       <c r="Y20" t="n">
-        <v>378.6482313381042</v>
+        <v>488.0955518968674</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>331.0777756667103</v>
+        <v>191.8728837217578</v>
       </c>
       <c r="C21" t="n">
-        <v>213.5718721842151</v>
+        <v>74.36698023926259</v>
       </c>
       <c r="D21" t="n">
-        <v>213.5718721842151</v>
+        <v>74.36698023926259</v>
       </c>
       <c r="E21" t="n">
-        <v>108.8699384571523</v>
+        <v>74.36698023926259</v>
       </c>
       <c r="F21" t="n">
-        <v>108.8699384571523</v>
+        <v>74.36698023926259</v>
       </c>
       <c r="G21" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H21" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I21" t="n">
-        <v>15.63279539966779</v>
+        <v>15.6327953996678</v>
       </c>
       <c r="J21" t="n">
-        <v>40.07417499003833</v>
+        <v>40.07417499003835</v>
       </c>
       <c r="K21" t="n">
-        <v>94.5485446934461</v>
+        <v>94.54854469344613</v>
       </c>
       <c r="L21" t="n">
         <v>175.3234702521545</v>
       </c>
       <c r="M21" t="n">
-        <v>272.7294895500565</v>
+        <v>272.7294895500566</v>
       </c>
       <c r="N21" t="n">
         <v>375.0549611369267</v>
@@ -5849,34 +5849,34 @@
         <v>465.052060015597</v>
       </c>
       <c r="P21" t="n">
-        <v>534.1410428855886</v>
+        <v>534.1410428855887</v>
       </c>
       <c r="Q21" t="n">
-        <v>572.2133288600024</v>
+        <v>572.2133288600025</v>
       </c>
       <c r="R21" t="n">
-        <v>578.2486299851294</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="S21" t="n">
-        <v>578.2486299851294</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="T21" t="n">
-        <v>578.2486299851294</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="U21" t="n">
-        <v>578.2486299851294</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="V21" t="n">
-        <v>460.004785086773</v>
+        <v>385.0607568534436</v>
       </c>
       <c r="W21" t="n">
-        <v>460.004785086773</v>
+        <v>191.8728837217578</v>
       </c>
       <c r="X21" t="n">
-        <v>460.004785086773</v>
+        <v>191.8728837217578</v>
       </c>
       <c r="Y21" t="n">
-        <v>460.004785086773</v>
+        <v>191.8728837217578</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="C22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="D22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="E22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="F22" t="n">
-        <v>593.162203376036</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="G22" t="n">
-        <v>545.0898365754675</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="H22" t="n">
-        <v>545.0898365754675</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="I22" t="n">
-        <v>545.0898365754675</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="J22" t="n">
-        <v>552.7946275017947</v>
+        <v>23.00527047835667</v>
       </c>
       <c r="K22" t="n">
-        <v>578.2743620518822</v>
+        <v>48.48500502844415</v>
       </c>
       <c r="L22" t="n">
-        <v>615.7393420370305</v>
+        <v>85.94998501359247</v>
       </c>
       <c r="M22" t="n">
-        <v>655.7703814433634</v>
+        <v>125.9810244199253</v>
       </c>
       <c r="N22" t="n">
-        <v>696.1264201661027</v>
+        <v>166.3370631426646</v>
       </c>
       <c r="O22" t="n">
-        <v>730.1008767915841</v>
+        <v>200.3115197681461</v>
       </c>
       <c r="P22" t="n">
-        <v>756.0743233940785</v>
+        <v>226.2849663706405</v>
       </c>
       <c r="Q22" t="n">
-        <v>765.0239776014756</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="R22" t="n">
-        <v>765.0239776014756</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="S22" t="n">
-        <v>765.0239776014756</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="T22" t="n">
-        <v>765.0239776014756</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="U22" t="n">
-        <v>765.0239776014756</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="V22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="W22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="X22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
       <c r="Y22" t="n">
-        <v>765.0239776014756</v>
+        <v>42.04674744635173</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1708.543576358644</v>
+        <v>1384.047643528113</v>
       </c>
       <c r="C23" t="n">
-        <v>1281.642846371944</v>
+        <v>1384.047643528113</v>
       </c>
       <c r="D23" t="n">
-        <v>858.3502255569447</v>
+        <v>960.7550227131132</v>
       </c>
       <c r="E23" t="n">
-        <v>432.3732857048022</v>
+        <v>534.7780828609708</v>
       </c>
       <c r="F23" t="n">
-        <v>50.20544392206813</v>
+        <v>534.7780828609708</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010162</v>
       </c>
       <c r="J23" t="n">
         <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L23" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N23" t="n">
         <v>1562.984812457614</v>
@@ -6007,34 +6007,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q23" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R23" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U23" t="n">
-        <v>2510.272196103407</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V23" t="n">
-        <v>2510.272196103407</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W23" t="n">
-        <v>2113.880846403754</v>
+        <v>1803.896007819643</v>
       </c>
       <c r="X23" t="n">
-        <v>2113.880846403754</v>
+        <v>1803.896007819643</v>
       </c>
       <c r="Y23" t="n">
-        <v>1708.543576358644</v>
+        <v>1803.896007819643</v>
       </c>
     </row>
     <row r="24">
@@ -6050,37 +6050,37 @@
         <v>486.671896462798</v>
       </c>
       <c r="D24" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F24" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145929</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570806</v>
       </c>
       <c r="K24" t="n">
-        <v>342.8010428266099</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L24" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M24" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O24" t="n">
         <v>1424.874394922369</v>
@@ -6089,10 +6089,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q24" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R24" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S24" t="n">
         <v>1759.362893661493</v>
@@ -6101,10 +6101,10 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V24" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W24" t="n">
         <v>1036.275044245401</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>605.9181947141356</v>
+        <v>324.2067273221647</v>
       </c>
       <c r="C25" t="n">
-        <v>605.9181947141356</v>
+        <v>324.2067273221647</v>
       </c>
       <c r="D25" t="n">
-        <v>605.9181947141356</v>
+        <v>324.2067273221647</v>
       </c>
       <c r="E25" t="n">
-        <v>439.7099888669891</v>
+        <v>157.9985214750182</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8482146415495</v>
+        <v>157.9985214750182</v>
       </c>
       <c r="G25" t="n">
-        <v>102.6257334616938</v>
+        <v>157.9985214750182</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J25" t="n">
         <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>198.4999349779649</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L25" t="n">
-        <v>327.539968574382</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1240622438374</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N25" t="n">
-        <v>598.7373394060097</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O25" t="n">
-        <v>719.7736117064335</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P25" t="n">
-        <v>820.2434820122616</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="U25" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="V25" t="n">
-        <v>880.7705985416225</v>
+        <v>599.0591311496516</v>
       </c>
       <c r="W25" t="n">
-        <v>605.9181947141356</v>
+        <v>324.2067273221647</v>
       </c>
       <c r="X25" t="n">
-        <v>605.9181947141356</v>
+        <v>324.2067273221647</v>
       </c>
       <c r="Y25" t="n">
-        <v>605.9181947141356</v>
+        <v>324.2067273221647</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2000.881891195384</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="C26" t="n">
-        <v>2000.881891195384</v>
+        <v>1205.067096609025</v>
       </c>
       <c r="D26" t="n">
-        <v>1577.589270380385</v>
+        <v>1205.067096609025</v>
       </c>
       <c r="E26" t="n">
-        <v>1151.612330528242</v>
+        <v>779.0901567568827</v>
       </c>
       <c r="F26" t="n">
-        <v>726.4881487176426</v>
+        <v>353.9659749462829</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010166</v>
+        <v>103.1440473010163</v>
       </c>
       <c r="J26" t="n">
         <v>265.8602102853081</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998226</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080624</v>
@@ -6241,37 +6241,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O26" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P26" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>2412.601890027637</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V26" t="n">
-        <v>2412.601890027637</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W26" t="n">
-        <v>2412.601890027637</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="X26" t="n">
-        <v>2000.881891195384</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="Y26" t="n">
-        <v>2000.881891195384</v>
+        <v>1631.967826595725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C27" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D27" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662155</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145936</v>
       </c>
       <c r="J27" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570806</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8010428266098</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L27" t="n">
-        <v>583.1000388744361</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M27" t="n">
-        <v>866.6631241688301</v>
+        <v>866.6631241688302</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O27" t="n">
         <v>1424.874394922369</v>
@@ -6326,10 +6326,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q27" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R27" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S27" t="n">
         <v>1759.362893661493</v>
@@ -6338,19 +6338,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U27" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V27" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W27" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y27" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1851.199562526888</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="C28" t="n">
-        <v>1679.707041483853</v>
+        <v>428.6700135677108</v>
       </c>
       <c r="D28" t="n">
-        <v>1679.707041483853</v>
+        <v>428.6700135677108</v>
       </c>
       <c r="E28" t="n">
-        <v>1679.707041483853</v>
+        <v>290.7258951007091</v>
       </c>
       <c r="F28" t="n">
-        <v>1679.707041483853</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="G28" t="n">
-        <v>1679.707041483853</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="H28" t="n">
-        <v>1679.707041483853</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J28" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K28" t="n">
-        <v>1828.00153253975</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L28" t="n">
-        <v>1957.041566136167</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M28" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N28" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O28" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P28" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="U28" t="n">
-        <v>2510.272196103407</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="V28" t="n">
-        <v>2510.272196103407</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="W28" t="n">
-        <v>2510.272196103407</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="X28" t="n">
-        <v>2267.708299549212</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="Y28" t="n">
-        <v>2041.365531238954</v>
+        <v>600.6425766887949</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1751.49991638651</v>
+        <v>477.106173908768</v>
       </c>
       <c r="C29" t="n">
-        <v>1324.59918639981</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D29" t="n">
-        <v>901.3065655848104</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3296257326679</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F29" t="n">
         <v>50.20544392206814</v>
@@ -6496,19 +6496,19 @@
         <v>2510.272196103407</v>
       </c>
       <c r="U29" t="n">
-        <v>2505.380680959914</v>
+        <v>2252.101783876848</v>
       </c>
       <c r="V29" t="n">
-        <v>2147.891266086163</v>
+        <v>1894.612369003098</v>
       </c>
       <c r="W29" t="n">
-        <v>1751.49991638651</v>
+        <v>1498.221019303445</v>
       </c>
       <c r="X29" t="n">
-        <v>1751.49991638651</v>
+        <v>1302.291808245408</v>
       </c>
       <c r="Y29" t="n">
-        <v>1751.49991638651</v>
+        <v>896.9545382002981</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C30" t="n">
-        <v>1179.176727910352</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>1075.336769425637</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>970.6348356985741</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F30" t="n">
-        <v>876.9890053814783</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G30" t="n">
-        <v>784.1691672541755</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H30" t="n">
-        <v>742.710275369622</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I30" t="n">
-        <v>768.3382977790131</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J30" t="n">
-        <v>862.1930296046344</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L30" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M30" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N30" t="n">
-        <v>1852.577516809035</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O30" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P30" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>2458.620841209086</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R30" t="n">
-        <v>2510.272196103407</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S30" t="n">
-        <v>2451.867725109046</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T30" t="n">
-        <v>2314.961407955104</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U30" t="n">
-        <v>2130.274391720471</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V30" t="n">
-        <v>1925.301252859737</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W30" t="n">
-        <v>1728.779875692954</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X30" t="n">
-        <v>1565.302529459617</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.20544392206814</v>
+        <v>172.944673241058</v>
       </c>
       <c r="C31" t="n">
         <v>50.20544392206814</v>
@@ -6651,22 +6651,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T31" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U31" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V31" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="W31" t="n">
-        <v>709.2780774985866</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="X31" t="n">
-        <v>466.7141809443917</v>
+        <v>399.287441551316</v>
       </c>
       <c r="Y31" t="n">
-        <v>240.3714126341338</v>
+        <v>172.944673241058</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>875.5309124347589</v>
+        <v>1233.160319295122</v>
       </c>
       <c r="C32" t="n">
-        <v>875.5309124347589</v>
+        <v>806.2595893084222</v>
       </c>
       <c r="D32" t="n">
-        <v>452.2382916197591</v>
+        <v>806.2595893084222</v>
       </c>
       <c r="E32" t="n">
-        <v>452.2382916197591</v>
+        <v>380.2826494562797</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2382916197591</v>
+        <v>380.2826494562797</v>
       </c>
       <c r="G32" t="n">
         <v>50.20544392206814</v>
@@ -6697,16 +6697,16 @@
         <v>50.20544392206814</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1440473010159</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853077</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998221</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080623</v>
@@ -6730,22 +6730,22 @@
         <v>2510.272196103407</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103407</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U32" t="n">
-        <v>2446.468945885525</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.979531011774</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="W32" t="n">
-        <v>1692.588181312121</v>
+        <v>1644.880318127375</v>
       </c>
       <c r="X32" t="n">
-        <v>1280.868182479869</v>
+        <v>1233.160319295122</v>
       </c>
       <c r="Y32" t="n">
-        <v>875.5309124347589</v>
+        <v>1233.160319295122</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.409457691812</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="C34" t="n">
-        <v>50.20544392206814</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="D34" t="n">
-        <v>50.20544392206814</v>
+        <v>591.5328260002274</v>
       </c>
       <c r="E34" t="n">
-        <v>50.20544392206814</v>
+        <v>425.3246201530809</v>
       </c>
       <c r="F34" t="n">
-        <v>50.20544392206814</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="G34" t="n">
-        <v>50.20544392206814</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H34" t="n">
-        <v>50.20544392206814</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I34" t="n">
         <v>50.20544392206814</v>
@@ -6888,22 +6888,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>880.7705985416225</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="U34" t="n">
-        <v>880.7705985416225</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="V34" t="n">
-        <v>880.7705985416225</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="W34" t="n">
-        <v>605.9181947141356</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="X34" t="n">
-        <v>605.9181947141356</v>
+        <v>754.8495988734567</v>
       </c>
       <c r="Y34" t="n">
-        <v>379.5754264038776</v>
+        <v>754.8495988734567</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>901.3065655848104</v>
+        <v>1656.729150001092</v>
       </c>
       <c r="C35" t="n">
-        <v>901.3065655848104</v>
+        <v>1229.828420014392</v>
       </c>
       <c r="D35" t="n">
-        <v>901.3065655848104</v>
+        <v>806.5357991993924</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3296257326679</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F35" t="n">
-        <v>50.20544392206814</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G35" t="n">
         <v>50.20544392206814</v>
@@ -6940,13 +6940,13 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998222</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N35" t="n">
         <v>1562.984812457614</v>
@@ -6964,25 +6964,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T35" t="n">
-        <v>2495.701613627453</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U35" t="n">
-        <v>2495.701613627453</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V35" t="n">
-        <v>2138.212198753703</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="W35" t="n">
-        <v>2138.212198753703</v>
+        <v>2062.066420046202</v>
       </c>
       <c r="X35" t="n">
-        <v>1726.49219992145</v>
+        <v>2062.066420046202</v>
       </c>
       <c r="Y35" t="n">
-        <v>1321.15492987634</v>
+        <v>1656.729150001092</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>464.2618615192989</v>
+        <v>378.7446979751531</v>
       </c>
       <c r="C37" t="n">
-        <v>292.2892983982149</v>
+        <v>378.7446979751531</v>
       </c>
       <c r="D37" t="n">
-        <v>292.2892983982149</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="E37" t="n">
-        <v>222.0672181475077</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="F37" t="n">
-        <v>50.20544392206814</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G37" t="n">
         <v>50.20544392206814</v>
@@ -7122,25 +7122,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T37" t="n">
-        <v>880.7705985416225</v>
+        <v>621.3085945293481</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416225</v>
+        <v>621.3085945293481</v>
       </c>
       <c r="V37" t="n">
-        <v>880.7705985416225</v>
+        <v>621.3085945293481</v>
       </c>
       <c r="W37" t="n">
-        <v>880.7705985416225</v>
+        <v>621.3085945293481</v>
       </c>
       <c r="X37" t="n">
-        <v>880.7705985416225</v>
+        <v>378.7446979751531</v>
       </c>
       <c r="Y37" t="n">
-        <v>654.4278302313645</v>
+        <v>378.7446979751531</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>903.0831137609105</v>
+        <v>476.1823837742106</v>
       </c>
       <c r="C38" t="n">
         <v>476.1823837742106</v>
@@ -7180,7 +7180,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L38" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080623</v>
@@ -7204,22 +7204,22 @@
         <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2458.457769745854</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U38" t="n">
-        <v>2200.287357519296</v>
+        <v>2047.120417224977</v>
       </c>
       <c r="V38" t="n">
-        <v>1842.797942645545</v>
+        <v>1689.631002351226</v>
       </c>
       <c r="W38" t="n">
-        <v>1728.26874809755</v>
+        <v>1293.239652651573</v>
       </c>
       <c r="X38" t="n">
-        <v>1728.26874809755</v>
+        <v>881.5196538193202</v>
       </c>
       <c r="Y38" t="n">
-        <v>1322.931478052441</v>
+        <v>476.1823837742106</v>
       </c>
     </row>
     <row r="39">
@@ -7235,16 +7235,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D39" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H39" t="n">
         <v>50.20544392206814</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.0591311496514</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="C40" t="n">
-        <v>599.0591311496514</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="D40" t="n">
-        <v>599.0591311496514</v>
+        <v>516.2348560014422</v>
       </c>
       <c r="E40" t="n">
-        <v>432.8509253025049</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F40" t="n">
-        <v>260.9891510770653</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G40" t="n">
         <v>184.80416897444</v>
@@ -7368,16 +7368,16 @@
         <v>880.7705985416225</v>
       </c>
       <c r="V40" t="n">
-        <v>599.0591311496514</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="W40" t="n">
-        <v>599.0591311496514</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="X40" t="n">
-        <v>599.0591311496514</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="Y40" t="n">
-        <v>599.0591311496514</v>
+        <v>679.5516288746715</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>876.9752132348615</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="C41" t="n">
-        <v>876.9752132348615</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D41" t="n">
-        <v>876.9752132348615</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E41" t="n">
-        <v>876.9752132348615</v>
+        <v>475.329625732668</v>
       </c>
       <c r="F41" t="n">
-        <v>451.8510314242617</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H41" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J41" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L41" t="n">
         <v>836.7412585230813</v>
@@ -7426,37 +7426,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P41" t="n">
         <v>2194.643812107885</v>
       </c>
       <c r="Q41" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R41" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S41" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U41" t="n">
-        <v>2510.272196103407</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>2510.272196103407</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W41" t="n">
-        <v>2113.880846403754</v>
+        <v>2141.656455277172</v>
       </c>
       <c r="X41" t="n">
-        <v>1702.160847571501</v>
+        <v>1729.93645644492</v>
       </c>
       <c r="Y41" t="n">
-        <v>1296.823577526392</v>
+        <v>1324.59918639981</v>
       </c>
     </row>
     <row r="42">
@@ -7475,31 +7475,31 @@
         <v>382.8319379780831</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339246</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662147</v>
       </c>
       <c r="H42" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145956</v>
       </c>
       <c r="J42" t="n">
         <v>169.6881981570805</v>
       </c>
       <c r="K42" t="n">
-        <v>342.8010428266099</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L42" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M42" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N42" t="n">
         <v>1160.072685361481</v>
@@ -7511,10 +7511,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q42" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R42" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S42" t="n">
         <v>1759.362893661493</v>
@@ -7526,7 +7526,7 @@
         <v>1437.769560272917</v>
       </c>
       <c r="V42" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W42" t="n">
         <v>1036.275044245401</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J43" t="n">
         <v>101.4579413382349</v>
@@ -7596,25 +7596,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T43" t="n">
-        <v>489.7446042989517</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U43" t="n">
-        <v>331.9169113140392</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V43" t="n">
-        <v>50.20544392206814</v>
+        <v>360.1398707135398</v>
       </c>
       <c r="W43" t="n">
-        <v>50.20544392206814</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="X43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1304.263203417059</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="C44" t="n">
-        <v>877.3624734303589</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="D44" t="n">
-        <v>877.3624734303589</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3624734303589</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F44" t="n">
-        <v>452.2382916197591</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G44" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I44" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853076</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998222</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230809</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N44" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
         <v>1906.806429336001</v>
@@ -7675,25 +7675,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S44" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T44" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.809887168171</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V44" t="n">
-        <v>2121.320472294421</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W44" t="n">
-        <v>2121.320472294421</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="X44" t="n">
-        <v>1709.600473462168</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="Y44" t="n">
-        <v>1304.263203417059</v>
+        <v>1235.576476896071</v>
       </c>
     </row>
     <row r="45">
@@ -7709,19 +7709,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F45" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
         <v>91.66433580662166</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I45" t="n">
         <v>75.83346633145928</v>
@@ -7730,13 +7730,13 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K45" t="n">
-        <v>342.8010428266098</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L45" t="n">
-        <v>583.1000388744361</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688302</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7748,10 +7748,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.116009761533</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R45" t="n">
-        <v>1817.767364655854</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S45" t="n">
         <v>1759.362893661493</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.0672181475077</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="C46" t="n">
-        <v>222.0672181475077</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="D46" t="n">
-        <v>222.0672181475077</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="E46" t="n">
-        <v>222.0672181475077</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="F46" t="n">
-        <v>50.20544392206813</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206813</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7833,25 +7833,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S46" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T46" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U46" t="n">
-        <v>638.5759551698313</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="V46" t="n">
-        <v>638.5759551698313</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="W46" t="n">
-        <v>638.5759551698313</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="X46" t="n">
-        <v>638.5759551698313</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.2331868595734</v>
+        <v>521.8884243797353</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>3.843705317436275</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J3" t="n">
-        <v>5.233389321549852</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.021643902788004</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.536891551628976</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.755254677277748</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.506790124936622</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>12.9368725197517</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4.311953536506707</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.89866348159544</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5.146189892547326</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.950075267626378</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.16148158963455</v>
+        <v>3.671637333691525</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.89866348159544</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>5.146189892547326</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.950075267626378</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.671637333691525</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>407.5736684273537</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>404.0016403473705</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>406.6591161941419</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>399.9967427842381</v>
+        <v>386.7336085924889</v>
       </c>
       <c r="H2" t="n">
-        <v>276.7702338373663</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I2" t="n">
-        <v>9.760307994600147</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.25505095986412</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.45372228830286</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T2" t="n">
         <v>217.4077535386488</v>
@@ -22640,10 +22640,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>92.95329294796625</v>
+        <v>79.69015875621704</v>
       </c>
       <c r="H3" t="n">
-        <v>36.2395835775628</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.54016887301827</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T3" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U3" t="n">
-        <v>167.8519374181986</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>187.8653532126473</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>146.7845185115246</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -22728,28 +22728,28 @@
         <v>94.73845284923044</v>
       </c>
       <c r="J4" t="n">
-        <v>11.15664534489041</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.39141578060923</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>40.53908648012926</v>
@@ -22789,7 +22789,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>403.0130095631694</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22801,13 +22801,13 @@
         <v>381.7663341259155</v>
       </c>
       <c r="H5" t="n">
-        <v>291.7043547567607</v>
+        <v>273.4860474864606</v>
       </c>
       <c r="I5" t="n">
         <v>22.55690342461459</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788004</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.985093652448732</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>78.01770889792071</v>
+        <v>96.23601616822083</v>
       </c>
       <c r="T5" t="n">
         <v>199.1364724422805</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>109.419432055562</v>
       </c>
       <c r="C6" t="n">
         <v>116.3308444476703</v>
@@ -22877,16 +22877,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>92.94681813455406</v>
+        <v>76.90013309087372</v>
       </c>
       <c r="H6" t="n">
         <v>51.2351047706663</v>
       </c>
       <c r="I6" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.888458418784962</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.50419080107098</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -22916,13 +22916,13 @@
         <v>59.20159478341716</v>
       </c>
       <c r="T6" t="n">
-        <v>121.5720560939172</v>
+        <v>139.7903633642173</v>
       </c>
       <c r="U6" t="n">
-        <v>164.691258432811</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
-        <v>200.2172562728782</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22953,7 +22953,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>169.5540326412546</v>
       </c>
       <c r="G7" t="n">
         <v>164.4548824832565</v>
@@ -22965,28 +22965,28 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77286693432814</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.755254677277748</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163518</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7054336060544557</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.779019446119921</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936622</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.34774867782111</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>40.29501189884586</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>392.1401676895704</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>395.5499816478053</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>398.2074574945767</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>397.3632270334494</v>
       </c>
       <c r="G8" t="n">
         <v>399.9626175572692</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>90.44918775078877</v>
+        <v>75.02679276390222</v>
       </c>
       <c r="T8" t="n">
-        <v>193.7486573985481</v>
+        <v>217.2583703575925</v>
       </c>
       <c r="U8" t="n">
-        <v>232.2350030121733</v>
+        <v>255.7447159712177</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23114,16 +23114,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>92.93503434185737</v>
+        <v>69.425321382813</v>
       </c>
       <c r="H9" t="n">
         <v>51.12129814120099</v>
       </c>
       <c r="I9" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.775148425455178</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.60890503121191</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>53.6913103136622</v>
+        <v>77.20102327270656</v>
       </c>
       <c r="T9" t="n">
-        <v>116.2331534512771</v>
+        <v>116.233153451277</v>
       </c>
       <c r="U9" t="n">
-        <v>159.3990774945472</v>
+        <v>162.2014352792653</v>
       </c>
       <c r="V9" t="n">
-        <v>182.2160522978001</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -23193,19 +23193,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.4450033473029</v>
+        <v>161.261170319107</v>
       </c>
       <c r="H10" t="n">
         <v>141.0300336718695</v>
       </c>
       <c r="I10" t="n">
-        <v>91.09428449497302</v>
+        <v>94.27811752316894</v>
       </c>
       <c r="J10" t="n">
-        <v>10.07441202240545</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.60747870011792</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,13 +23217,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.382648484235652</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.311953536506707</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.10962959912422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>39.85081002223924</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>385.1769727340878</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>392.1588147723059</v>
+        <v>334.5380422188313</v>
       </c>
       <c r="D11" t="n">
-        <v>392.2191573157343</v>
+        <v>330.9660141388482</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>344.1242566974053</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>332.7792595244922</v>
       </c>
       <c r="G11" t="n">
-        <v>399.9373748401208</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H11" t="n">
-        <v>291.2202861391545</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I11" t="n">
-        <v>20.73465952076844</v>
+        <v>13.04715655754853</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.52577934020787</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.15892952120976</v>
+        <v>90.61502254307932</v>
       </c>
       <c r="T11" t="n">
-        <v>217.1478703632754</v>
+        <v>216.2749815954525</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7426965538458</v>
+        <v>255.7267442748222</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>370.8109894301316</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23339,28 +23339,28 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>85.85793653314329</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>72.32865098534084</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>73.18200647526517</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>65.86883472280954</v>
+        <v>28.56717992479732</v>
       </c>
       <c r="G12" t="n">
-        <v>92.92152829748879</v>
+        <v>4.721157557691981</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99085818637803</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.57199082191487</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.499123417806988</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.77034553962527</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>76.95015442226369</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>139.6884275735901</v>
+        <v>139.2583909078891</v>
       </c>
       <c r="U12" t="n">
-        <v>182.907901898041</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23430,19 +23430,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4336803334017</v>
+        <v>164.3442347934871</v>
       </c>
       <c r="H13" t="n">
-        <v>132.4442705182933</v>
+        <v>63.40958040857988</v>
       </c>
       <c r="I13" t="n">
-        <v>93.93760361421315</v>
+        <v>91.24773228659839</v>
       </c>
       <c r="J13" t="n">
-        <v>9.273874939591304</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.291950357779633</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.942486473402749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.34168614264573</v>
+        <v>35.31988941157481</v>
       </c>
       <c r="S13" t="n">
-        <v>165.6327913918166</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T13" t="n">
-        <v>240.2192429564045</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3738374869546</v>
+        <v>277.368958639323</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>338.0569668923989</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23509,13 +23509,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>399.9373748401208</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2202861391545</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.04715655754853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>12.52577934020789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.15892952120976</v>
+        <v>2.521342075077754</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1478703632754</v>
+        <v>216.2749815954525</v>
       </c>
       <c r="U14" t="n">
-        <v>249.636818783499</v>
+        <v>167.6330638068206</v>
       </c>
       <c r="V14" t="n">
-        <v>323.4416128104861</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>361.9545282881297</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>377.1298909294033</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>313.190216876657</v>
       </c>
     </row>
     <row r="15">
@@ -23582,22 +23582,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>76.81437709867684</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>62.23646409939796</v>
+        <v>4.615691545923312</v>
       </c>
       <c r="G15" t="n">
-        <v>62.44862038296188</v>
+        <v>4.721157557691953</v>
       </c>
       <c r="H15" t="n">
-        <v>20.51795027185112</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I15" t="n">
-        <v>9.571990821914873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.499123417807002</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.77034553962528</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>76.95015442226369</v>
+        <v>62.08471407494127</v>
       </c>
       <c r="T15" t="n">
-        <v>139.6884275735902</v>
+        <v>139.2583909078891</v>
       </c>
       <c r="U15" t="n">
-        <v>182.907901898041</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23642,7 +23642,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>50.20227929223896</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>84.95907593240632</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,19 +23667,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.4336803334017</v>
+        <v>164.3442347934871</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9293617846389</v>
+        <v>140.1341096206706</v>
       </c>
       <c r="I16" t="n">
-        <v>93.93760361421315</v>
+        <v>91.24773228659839</v>
       </c>
       <c r="J16" t="n">
-        <v>9.273874939591312</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.291950357779648</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.942486473402766</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.16148158963456</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.34168614264573</v>
+        <v>35.31988941157481</v>
       </c>
       <c r="S16" t="n">
-        <v>165.6327913918166</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T16" t="n">
-        <v>240.2192429564045</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3738374869546</v>
+        <v>277.368958639323</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23721,7 +23721,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.5942493608099</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>337.0765898661814</v>
       </c>
       <c r="D17" t="n">
         <v>227.8037002064807</v>
@@ -23746,7 +23746,7 @@
         <v>229.6169455921248</v>
       </c>
       <c r="G17" t="n">
-        <v>230.9412657907501</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H17" t="n">
         <v>285.7122430338547</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>214.7935231211468</v>
@@ -23867,13 +23867,13 @@
         <v>138.5285367888426</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>8.08228992912737</v>
       </c>
       <c r="V18" t="n">
         <v>11.66741307175741</v>
       </c>
       <c r="W18" t="n">
-        <v>11.38245892387334</v>
+        <v>3.300168994745974</v>
       </c>
       <c r="X18" t="n">
         <v>161.8425727710037</v>
@@ -23910,7 +23910,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I19" t="n">
-        <v>86.68250837722755</v>
+        <v>60.20370316184857</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T19" t="n">
         <v>239.1884404287796</v>
       </c>
       <c r="U19" t="n">
-        <v>221.0543116872303</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>87.63835831768239</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>330.0947478279632</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>231.3757282864639</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>230.461176053252</v>
       </c>
       <c r="F20" t="n">
-        <v>252.4146601246488</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H20" t="n">
-        <v>94.45624863348579</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6996702193238</v>
+        <v>64.44367581895477</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>201.1714418022877</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>216.3468044435613</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,13 +24056,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>34.1579286357108</v>
       </c>
       <c r="H21" t="n">
         <v>48.21166394479565</v>
@@ -24107,10 +24107,10 @@
         <v>182.8889700571583</v>
       </c>
       <c r="V21" t="n">
-        <v>85.86200102275366</v>
+        <v>11.66741307175741</v>
       </c>
       <c r="W21" t="n">
-        <v>194.556163395115</v>
+        <v>3.300168994745974</v>
       </c>
       <c r="X21" t="n">
         <v>161.8425727710037</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>116.6007855454373</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H22" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I22" t="n">
-        <v>86.68250837722755</v>
+        <v>60.20370316184857</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>277.3606783057509</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>87.63835831768239</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>42.52677662758697</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.012519220714</v>
+        <v>189.7929651981051</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>81.35665115761873</v>
+        <v>26.53759102442756</v>
       </c>
       <c r="I25" t="n">
         <v>67.97209018366931</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5190049372437429</v>
+        <v>0.5190049372437358</v>
       </c>
       <c r="S25" t="n">
         <v>150.5856664684936</v>
@@ -24423,7 +24423,7 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>97.28959350674143</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>158.8951050892815</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4752416572681284</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>27.98144650634322</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.5702563680571</v>
@@ -24621,7 +24621,7 @@
         <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5190049372437429</v>
+        <v>0.5190049372437358</v>
       </c>
       <c r="S28" t="n">
         <v>150.5856664684936</v>
@@ -24657,7 +24657,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24666,10 +24666,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.012519220714</v>
@@ -24736,7 +24736,7 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>250.7461081122347</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>213.6328798964736</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>48.74100046407321</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24891,7 +24891,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3267416342995</v>
@@ -24900,7 +24900,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>102.3262839566067</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>71.23608574184453</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -24970,13 +24970,13 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>192.4234903885895</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>32.44086385782677</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5300678317505</v>
+        <v>111.8682781602663</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
@@ -25137,13 +25137,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>70.96263794978404</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.5073585269046</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>194.2969382381279</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>95.02626434047488</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>133.2527378018481</v>
@@ -25362,10 +25362,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>130.2483503280924</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
@@ -25377,10 +25377,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>57.08654399794642</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>279.0435336001415</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>88.14712408645806</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -25617,7 +25617,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>24.87256065687387</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3833875935424258</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
         <v>271.5073585269046</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>334.3828429829541</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>121.0773255792361</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>205.4070548543081</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25867,13 +25867,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>338.5926655494703</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>224.4410222584103</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>67.97209018366931</v>
@@ -26073,13 +26073,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>37.55404469622629</v>
+        <v>72.61905568252479</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60412.93553502409</v>
+        <v>66504.42472268715</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61649.58055795087</v>
+        <v>68443.9409377049</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66318.19348778266</v>
+        <v>71749.39253007629</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72227.97916173235</v>
+        <v>112307.9598730669</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71759.19693496764</v>
+        <v>112307.9598730669</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452032.3271294654</v>
+        <v>452032.3271294655</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452032.3271294652</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>452032.3271294653</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>452032.3271294652</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452032.3271294652</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452032.3271294652</v>
+        <v>452032.3271294653</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19261.84314690987</v>
+        <v>20741.20480677089</v>
       </c>
       <c r="C2" t="n">
-        <v>19774.39376387104</v>
+        <v>21424.45271323988</v>
       </c>
       <c r="D2" t="n">
-        <v>21271.8733828737</v>
+        <v>22590.87886457358</v>
       </c>
       <c r="E2" t="n">
-        <v>23130.94801588316</v>
+        <v>35937.80438668744</v>
       </c>
       <c r="F2" t="n">
-        <v>23017.10090366887</v>
+        <v>35937.80438668744</v>
       </c>
       <c r="G2" t="n">
         <v>57124.3524842038</v>
       </c>
       <c r="H2" t="n">
-        <v>57124.35248420381</v>
+        <v>57124.35248420382</v>
       </c>
       <c r="I2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="J2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="K2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="L2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="M2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="N2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="O2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="P2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>3762.097706969926</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957282</v>
+        <v>6335.473445957283</v>
       </c>
       <c r="E3" t="n">
-        <v>7123.725401352045</v>
+        <v>64178.10880470018</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>148084.3374776133</v>
+        <v>93726.7351778546</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>3939.849548667163</v>
       </c>
       <c r="K3" t="n">
-        <v>813.3479968890052</v>
+        <v>813.3479968889467</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169973</v>
+        <v>1339.207157169974</v>
       </c>
       <c r="M3" t="n">
-        <v>1735.256035686087</v>
+        <v>16094.58303910216</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38692.61054590438</v>
+        <v>24826.11401013818</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.2180579177248</v>
+        <v>1851.579717778751</v>
       </c>
       <c r="C4" t="n">
-        <v>13.22273493796323</v>
+        <v>1663.281684306806</v>
       </c>
       <c r="D4" t="n">
-        <v>17.15222569169689</v>
+        <v>1336.157707391578</v>
       </c>
       <c r="E4" t="n">
-        <v>136.2396314010267</v>
+        <v>329.0220391881188</v>
       </c>
       <c r="F4" t="n">
-        <v>22.39251918675422</v>
+        <v>329.0220391881188</v>
       </c>
       <c r="G4" t="n">
         <v>134.583956678369</v>
@@ -26438,28 +26438,28 @@
         <v>134.583956678369</v>
       </c>
       <c r="I4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539643</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539643</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="P4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>36863.06036917747</v>
       </c>
       <c r="E5" t="n">
-        <v>3795.707566887204</v>
+        <v>8380.365801579239</v>
       </c>
       <c r="F5" t="n">
-        <v>3795.707566887199</v>
+        <v>8380.365801579241</v>
       </c>
       <c r="G5" t="n">
         <v>16487.83241934473</v>
@@ -26490,10 +26490,10 @@
         <v>16487.83241934473</v>
       </c>
       <c r="I5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="J5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="K5" t="n">
         <v>50537.10295659396</v>
@@ -26508,10 +26508,10 @@
         <v>50537.10295659396</v>
       </c>
       <c r="O5" t="n">
+        <v>50537.10295659397</v>
+      </c>
+      <c r="P5" t="n">
         <v>50537.10295659396</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50537.10295659395</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93973.72548465343</v>
+        <v>-95307.8250675827</v>
       </c>
       <c r="C6" t="n">
-        <v>-20422.83980869178</v>
+        <v>-21752.92028628888</v>
       </c>
       <c r="D6" t="n">
-        <v>-21943.81265795275</v>
+        <v>-23267.03180524788</v>
       </c>
       <c r="E6" t="n">
-        <v>12075.27541624288</v>
+        <v>-38194.40007947456</v>
       </c>
       <c r="F6" t="n">
-        <v>19199.00081759492</v>
+        <v>25983.70872522563</v>
       </c>
       <c r="G6" t="n">
-        <v>-107582.4013694326</v>
+        <v>-54344.88013685355</v>
       </c>
       <c r="H6" t="n">
-        <v>40501.93610818071</v>
+        <v>39381.85504100106</v>
       </c>
       <c r="I6" t="n">
-        <v>-281726.181038811</v>
+        <v>-282329.3965255759</v>
       </c>
       <c r="J6" t="n">
-        <v>90074.094857619</v>
+        <v>89470.87937085424</v>
       </c>
       <c r="K6" t="n">
-        <v>93200.59640939724</v>
+        <v>92597.3809226325</v>
       </c>
       <c r="L6" t="n">
-        <v>92674.73724911633</v>
+        <v>92071.52176235139</v>
       </c>
       <c r="M6" t="n">
-        <v>92278.68837060014</v>
+        <v>77316.1458804193</v>
       </c>
       <c r="N6" t="n">
-        <v>94013.94440628627</v>
+        <v>93410.72891952138</v>
       </c>
       <c r="O6" t="n">
-        <v>55321.33386038185</v>
+        <v>68584.61490938325</v>
       </c>
       <c r="P6" t="n">
-        <v>94013.94440628626</v>
+        <v>93410.72891952138</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>82.84723950768694</v>
       </c>
       <c r="E3" t="n">
-        <v>89.12636539834699</v>
+        <v>138.7279829873737</v>
       </c>
       <c r="F3" t="n">
-        <v>89.12636539834692</v>
+        <v>138.7279829873737</v>
       </c>
       <c r="G3" t="n">
         <v>222.9113743028576</v>
@@ -26758,10 +26758,10 @@
         <v>222.9113743028576</v>
       </c>
       <c r="I3" t="n">
-        <v>567.9342007257877</v>
+        <v>567.9342007257878</v>
       </c>
       <c r="J3" t="n">
-        <v>567.9342007257877</v>
+        <v>567.9342007257878</v>
       </c>
       <c r="K3" t="n">
         <v>567.9342007257877</v>
@@ -26798,22 +26798,22 @@
         <v>23.50971295904437</v>
       </c>
       <c r="E4" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="F4" t="n">
-        <v>30.47290791452692</v>
+        <v>88.09368046800157</v>
       </c>
       <c r="G4" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="H4" t="n">
-        <v>191.2559944003689</v>
+        <v>191.255994400369</v>
       </c>
       <c r="I4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="J4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="K4" t="n">
         <v>627.5680490258518</v>
@@ -26828,10 +26828,10 @@
         <v>627.5680490258518</v>
       </c>
       <c r="O4" t="n">
+        <v>627.5680490258519</v>
+      </c>
+      <c r="P4" t="n">
         <v>627.5680490258518</v>
-      </c>
-      <c r="P4" t="n">
-        <v>627.5680490258517</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>5.478429937930315</v>
       </c>
       <c r="E3" t="n">
-        <v>6.279125890660055</v>
+        <v>55.88074347968674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>133.7850089045107</v>
+        <v>84.18339131548393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,40 +27017,40 @@
         <v>3.160253010820988</v>
       </c>
       <c r="D4" t="n">
-        <v>5.291405688744259</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="E4" t="n">
-        <v>6.963194955482603</v>
+        <v>64.58396750895716</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7830864858421</v>
+        <v>103.1623139323674</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>436.3120546254828</v>
+        <v>436.3120546254829</v>
       </c>
       <c r="J4" t="n">
         <v>15.05805425947915</v>
       </c>
       <c r="K4" t="n">
-        <v>3.160253010821101</v>
+        <v>3.160253010820874</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744259</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>6.963194955482603</v>
+        <v>64.58396750895716</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>160.7830864858421</v>
+        <v>103.1623139323675</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>3.160253010820988</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744259</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>6.963194955482603</v>
+        <v>64.58396750895716</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>160.7830864858421</v>
+        <v>103.1623139323674</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31132,10 +31132,10 @@
         <v>15.11092803861859</v>
       </c>
       <c r="K3" t="n">
-        <v>25.82698285120563</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>34.72756569109202</v>
+        <v>28.36972129904176</v>
       </c>
       <c r="M3" t="n">
         <v>38.1548347718071</v>
@@ -31144,7 +31144,7 @@
         <v>36.40108247302079</v>
       </c>
       <c r="O3" t="n">
-        <v>28.26846690811943</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P3" t="n">
         <v>30.54173831044873</v>
@@ -31378,13 +31378,13 @@
         <v>41.31508778262809</v>
       </c>
       <c r="N6" t="n">
-        <v>39.56133548384177</v>
+        <v>30.74023446979464</v>
       </c>
       <c r="O6" t="n">
         <v>39.59458313896781</v>
       </c>
       <c r="P6" t="n">
-        <v>22.95704267508555</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q6" t="n">
         <v>21.24284748790752</v>
@@ -31530,10 +31530,10 @@
         <v>42.36574690462687</v>
       </c>
       <c r="L8" t="n">
-        <v>52.55845527079119</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M8" t="n">
-        <v>58.48140841891109</v>
+        <v>58.48140841891108</v>
       </c>
       <c r="N8" t="n">
         <v>59.4276987475592</v>
@@ -31606,7 +31606,7 @@
         <v>16.83596590787816</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>28.77534732975953</v>
       </c>
       <c r="L9" t="n">
         <v>38.69200558328342</v>
@@ -31615,7 +31615,7 @@
         <v>45.15174553168937</v>
       </c>
       <c r="N9" t="n">
-        <v>44.71626125022895</v>
+        <v>38.34014775380277</v>
       </c>
       <c r="O9" t="n">
         <v>42.3982471846556</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3582969463250127</v>
+        <v>0.5577004341200947</v>
       </c>
       <c r="H11" t="n">
-        <v>3.669408601551038</v>
+        <v>5.711549570932422</v>
       </c>
       <c r="I11" t="n">
-        <v>13.81324302319507</v>
+        <v>21.50074598641497</v>
       </c>
       <c r="J11" t="n">
-        <v>30.41000544815258</v>
+        <v>47.33412722040044</v>
       </c>
       <c r="K11" t="n">
-        <v>45.57671518609038</v>
+        <v>70.94158659670406</v>
       </c>
       <c r="L11" t="n">
-        <v>56.5419453571845</v>
+        <v>88.00931125740694</v>
       </c>
       <c r="M11" t="n">
-        <v>62.91380867639194</v>
+        <v>97.92731635269016</v>
       </c>
       <c r="N11" t="n">
-        <v>63.93181987513789</v>
+        <v>99.51188271113389</v>
       </c>
       <c r="O11" t="n">
-        <v>60.36900461511854</v>
+        <v>93.96624901935219</v>
       </c>
       <c r="P11" t="n">
-        <v>51.52354875271978</v>
+        <v>80.19801955201234</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.69203936245525</v>
+        <v>60.22537275508643</v>
       </c>
       <c r="R11" t="n">
-        <v>22.5068705545886</v>
+        <v>35.03264989479644</v>
       </c>
       <c r="S11" t="n">
-        <v>8.164691664381236</v>
+        <v>12.70859864251167</v>
       </c>
       <c r="T11" t="n">
-        <v>1.568444882537744</v>
+        <v>2.441333650360716</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02866375570600101</v>
+        <v>0.04461603472960757</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1917057670832369</v>
+        <v>0.2983960388785019</v>
       </c>
       <c r="H12" t="n">
-        <v>1.851474118935473</v>
+        <v>2.881877533379216</v>
       </c>
       <c r="I12" t="n">
-        <v>6.600395928085132</v>
+        <v>10.27372326840456</v>
       </c>
       <c r="J12" t="n">
-        <v>18.11199091552635</v>
+        <v>28.19188190123601</v>
       </c>
       <c r="K12" t="n">
-        <v>30.95627731010322</v>
+        <v>48.18441650609563</v>
       </c>
       <c r="L12" t="n">
-        <v>41.62453508533178</v>
+        <v>64.78989431877297</v>
       </c>
       <c r="M12" t="n">
-        <v>48.57386914209911</v>
+        <v>75.60675072811864</v>
       </c>
       <c r="N12" t="n">
-        <v>49.85947492223188</v>
+        <v>77.6078364449837</v>
       </c>
       <c r="O12" t="n">
-        <v>45.61167871475593</v>
+        <v>70.9960084256232</v>
       </c>
       <c r="P12" t="n">
-        <v>36.60739336521917</v>
+        <v>56.98055588022902</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.47107300522162</v>
+        <v>38.08999261192947</v>
       </c>
       <c r="R12" t="n">
-        <v>11.90257385451887</v>
+        <v>18.52672950159682</v>
       </c>
       <c r="S12" t="n">
-        <v>3.560850542094333</v>
+        <v>5.54257554671252</v>
       </c>
       <c r="T12" t="n">
-        <v>0.77270877170831</v>
+        <v>1.2027454374094</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.01963131834726987</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.2501652152231328</v>
       </c>
       <c r="H13" t="n">
-        <v>1.428944022288253</v>
+        <v>2.224196186256583</v>
       </c>
       <c r="I13" t="n">
-        <v>4.833278962913638</v>
+        <v>7.523150290528397</v>
       </c>
       <c r="J13" t="n">
-        <v>11.36288104431056</v>
+        <v>17.68668071627549</v>
       </c>
       <c r="K13" t="n">
-        <v>18.67270409493236</v>
+        <v>29.06464955046943</v>
       </c>
       <c r="L13" t="n">
-        <v>23.8946324545011</v>
+        <v>37.19274481599196</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19353964858519</v>
+        <v>39.21453460084071</v>
       </c>
       <c r="N13" t="n">
-        <v>24.59449358607174</v>
+        <v>38.28210061682726</v>
       </c>
       <c r="O13" t="n">
-        <v>22.71699556087704</v>
+        <v>35.35971605717519</v>
       </c>
       <c r="P13" t="n">
-        <v>19.43831418458374</v>
+        <v>30.25634566662325</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.4580811751504</v>
+        <v>20.94792543109342</v>
       </c>
       <c r="R13" t="n">
-        <v>7.226541037052853</v>
+        <v>11.24833776812377</v>
       </c>
       <c r="S13" t="n">
-        <v>2.800905614239854</v>
+        <v>4.359697432570414</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6867113399544765</v>
+        <v>1.068887737771567</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008766527744099714</v>
+        <v>0.01364537537580726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3582969463250125</v>
+        <v>0.5577004341200947</v>
       </c>
       <c r="H14" t="n">
-        <v>3.669408601551035</v>
+        <v>5.711549570932422</v>
       </c>
       <c r="I14" t="n">
-        <v>13.81324302319506</v>
+        <v>21.50074598641497</v>
       </c>
       <c r="J14" t="n">
-        <v>30.41000544815255</v>
+        <v>47.33412722040044</v>
       </c>
       <c r="K14" t="n">
-        <v>45.57671518609034</v>
+        <v>70.94158659670406</v>
       </c>
       <c r="L14" t="n">
-        <v>56.54194535718445</v>
+        <v>88.00931125740694</v>
       </c>
       <c r="M14" t="n">
-        <v>62.91380867639189</v>
+        <v>97.92731635269016</v>
       </c>
       <c r="N14" t="n">
-        <v>63.93181987513784</v>
+        <v>99.51188271113389</v>
       </c>
       <c r="O14" t="n">
-        <v>60.36900461511849</v>
+        <v>93.96624901935219</v>
       </c>
       <c r="P14" t="n">
-        <v>51.52354875271974</v>
+        <v>80.19801955201234</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.69203936245522</v>
+        <v>60.22537275508643</v>
       </c>
       <c r="R14" t="n">
-        <v>22.50687055458858</v>
+        <v>35.03264989479644</v>
       </c>
       <c r="S14" t="n">
-        <v>8.16469166438123</v>
+        <v>12.70859864251167</v>
       </c>
       <c r="T14" t="n">
-        <v>1.568444882537743</v>
+        <v>2.441333650360716</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02866375570600099</v>
+        <v>0.04461603472960757</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1917057670832368</v>
+        <v>0.2983960388785019</v>
       </c>
       <c r="H15" t="n">
-        <v>1.851474118935471</v>
+        <v>2.881877533379216</v>
       </c>
       <c r="I15" t="n">
-        <v>6.600395928085127</v>
+        <v>10.27372326840456</v>
       </c>
       <c r="J15" t="n">
-        <v>18.11199091552633</v>
+        <v>28.19188190123601</v>
       </c>
       <c r="K15" t="n">
-        <v>30.9562773101032</v>
+        <v>48.18441650609563</v>
       </c>
       <c r="L15" t="n">
-        <v>41.62453508533174</v>
+        <v>64.78989431877297</v>
       </c>
       <c r="M15" t="n">
-        <v>48.57386914209906</v>
+        <v>75.60675072811864</v>
       </c>
       <c r="N15" t="n">
-        <v>49.85947492223183</v>
+        <v>77.6078364449837</v>
       </c>
       <c r="O15" t="n">
-        <v>45.6116787147559</v>
+        <v>70.9960084256232</v>
       </c>
       <c r="P15" t="n">
-        <v>36.60739336521914</v>
+        <v>56.98055588022902</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.47107300522159</v>
+        <v>38.08999261192947</v>
       </c>
       <c r="R15" t="n">
-        <v>11.90257385451886</v>
+        <v>18.52672950159682</v>
       </c>
       <c r="S15" t="n">
-        <v>3.56085054209433</v>
+        <v>5.54257554671252</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7727087717083093</v>
+        <v>1.2027454374094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.012612221518634</v>
+        <v>0.01963131834726987</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1607196753084944</v>
+        <v>0.2501652152231328</v>
       </c>
       <c r="H16" t="n">
-        <v>1.428944022288251</v>
+        <v>2.224196186256583</v>
       </c>
       <c r="I16" t="n">
-        <v>4.833278962913634</v>
+        <v>7.523150290528397</v>
       </c>
       <c r="J16" t="n">
-        <v>11.36288104431056</v>
+        <v>17.68668071627549</v>
       </c>
       <c r="K16" t="n">
-        <v>18.67270409493235</v>
+        <v>29.06464955046943</v>
       </c>
       <c r="L16" t="n">
-        <v>23.89463245450107</v>
+        <v>37.19274481599196</v>
       </c>
       <c r="M16" t="n">
-        <v>25.19353964858517</v>
+        <v>39.21453460084071</v>
       </c>
       <c r="N16" t="n">
-        <v>24.59449358607171</v>
+        <v>38.28210061682726</v>
       </c>
       <c r="O16" t="n">
-        <v>22.71699556087702</v>
+        <v>35.35971605717519</v>
       </c>
       <c r="P16" t="n">
-        <v>19.43831418458372</v>
+        <v>30.25634566662325</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.45808117515038</v>
+        <v>20.94792543109342</v>
       </c>
       <c r="R16" t="n">
-        <v>7.226541037052848</v>
+        <v>11.24833776812377</v>
       </c>
       <c r="S16" t="n">
-        <v>2.800905614239852</v>
+        <v>4.359697432570414</v>
       </c>
       <c r="T16" t="n">
-        <v>0.686711339954476</v>
+        <v>1.068887737771567</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008766527744099707</v>
+        <v>0.01364537537580726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.896126127850683</v>
+        <v>0.8961261278506831</v>
       </c>
       <c r="H20" t="n">
-        <v>9.17745170685081</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
-        <v>76.05758494366698</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K20" t="n">
         <v>113.9906039355864</v>
@@ -32490,22 +32490,22 @@
         <v>150.9871711239019</v>
       </c>
       <c r="P20" t="n">
-        <v>128.8640573425881</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.77154038893552</v>
+        <v>96.77154038893553</v>
       </c>
       <c r="R20" t="n">
-        <v>56.29128287860052</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S20" t="n">
         <v>20.42047413839746</v>
       </c>
       <c r="T20" t="n">
-        <v>3.922792124666367</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07169009022805463</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4794697485004861</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H21" t="n">
         <v>4.630668360517854</v>
       </c>
       <c r="I21" t="n">
-        <v>16.508059323372</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J21" t="n">
-        <v>45.29937654582883</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K21" t="n">
-        <v>77.4238496953614</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L21" t="n">
         <v>104.1059206119148</v>
@@ -32563,22 +32563,22 @@
         <v>121.4866989950574</v>
       </c>
       <c r="N21" t="n">
-        <v>124.7020904225014</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O21" t="n">
         <v>114.0780502057275</v>
       </c>
       <c r="P21" t="n">
-        <v>91.55769258865863</v>
+        <v>91.55769258865864</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.20389280858838</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R21" t="n">
         <v>29.76918315689862</v>
       </c>
       <c r="S21" t="n">
-        <v>8.905940284647182</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T21" t="n">
         <v>1.932599556455906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.401971330710071</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H22" t="n">
-        <v>3.573890558494997</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I22" t="n">
         <v>12.08837419989923</v>
@@ -32636,10 +32636,10 @@
         <v>46.70176005886097</v>
       </c>
       <c r="L22" t="n">
-        <v>59.76217402211365</v>
+        <v>59.76217402211366</v>
       </c>
       <c r="M22" t="n">
-        <v>63.01083323121594</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N22" t="n">
         <v>61.51257645311482</v>
@@ -32651,13 +32651,13 @@
         <v>48.61660530697075</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.65961751973149</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R22" t="n">
-        <v>18.07409274265464</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S22" t="n">
-        <v>7.005264008829144</v>
+        <v>7.005264008829145</v>
       </c>
       <c r="T22" t="n">
         <v>1.717513867579394</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.283152565731808</v>
+        <v>2.283152565731809</v>
       </c>
       <c r="H23" t="n">
         <v>23.38233621380089</v>
       </c>
       <c r="I23" t="n">
-        <v>88.02123929037562</v>
+        <v>88.02123929037563</v>
       </c>
       <c r="J23" t="n">
-        <v>193.7797200757802</v>
+        <v>193.7797200757803</v>
       </c>
       <c r="K23" t="n">
-        <v>290.4255681832077</v>
+        <v>290.4255681832078</v>
       </c>
       <c r="L23" t="n">
-        <v>360.2985985167226</v>
+        <v>360.2985985167227</v>
       </c>
       <c r="M23" t="n">
-        <v>400.9016129575556</v>
+        <v>400.9016129575558</v>
       </c>
       <c r="N23" t="n">
-        <v>407.3886201849412</v>
+        <v>407.3886201849413</v>
       </c>
       <c r="O23" t="n">
-        <v>384.6855218594455</v>
+        <v>384.6855218594456</v>
       </c>
       <c r="P23" t="n">
-        <v>328.3201928929414</v>
+        <v>328.3201928929415</v>
       </c>
       <c r="Q23" t="n">
         <v>246.554791632671</v>
@@ -32736,10 +32736,10 @@
         <v>143.4190823571508</v>
       </c>
       <c r="S23" t="n">
-        <v>52.02733909161363</v>
+        <v>52.02733909161364</v>
       </c>
       <c r="T23" t="n">
-        <v>9.994500356490995</v>
+        <v>9.994500356490997</v>
       </c>
       <c r="U23" t="n">
         <v>0.1826522052585446</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22159431854226</v>
+        <v>1.221594318542261</v>
       </c>
       <c r="H24" t="n">
         <v>11.79802933960552</v>
       </c>
       <c r="I24" t="n">
-        <v>42.0592780726173</v>
+        <v>42.05927807261731</v>
       </c>
       <c r="J24" t="n">
         <v>115.4138737531528</v>
       </c>
       <c r="K24" t="n">
-        <v>197.2606930954842</v>
+        <v>197.2606930954843</v>
       </c>
       <c r="L24" t="n">
         <v>265.2413453483974</v>
       </c>
       <c r="M24" t="n">
-        <v>309.5241393955542</v>
+        <v>309.5241393955543</v>
       </c>
       <c r="N24" t="n">
-        <v>317.7163223475329</v>
+        <v>317.716322347533</v>
       </c>
       <c r="O24" t="n">
-        <v>290.6483640261491</v>
+        <v>290.6483640261492</v>
       </c>
       <c r="P24" t="n">
         <v>233.2709361433901</v>
@@ -32812,16 +32812,16 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R24" t="n">
-        <v>75.84600514598353</v>
+        <v>75.84600514598354</v>
       </c>
       <c r="S24" t="n">
-        <v>22.69057867994065</v>
+        <v>22.69057867994066</v>
       </c>
       <c r="T24" t="n">
-        <v>4.923882362896214</v>
+        <v>4.923882362896215</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08036804727251716</v>
+        <v>0.08036804727251719</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.02414364065306</v>
       </c>
       <c r="H25" t="n">
-        <v>9.105568005079029</v>
+        <v>9.10556800507903</v>
       </c>
       <c r="I25" t="n">
         <v>30.79879239345748</v>
       </c>
       <c r="J25" t="n">
-        <v>72.40695539417132</v>
+        <v>72.40695539417133</v>
       </c>
       <c r="K25" t="n">
         <v>118.9868702504191</v>
@@ -32882,25 +32882,25 @@
         <v>156.7219082101179</v>
       </c>
       <c r="O25" t="n">
-        <v>144.7580484079434</v>
+        <v>144.7580484079435</v>
       </c>
       <c r="P25" t="n">
         <v>123.8655181386209</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.75806430959395</v>
+        <v>85.75806430959396</v>
       </c>
       <c r="R25" t="n">
-        <v>46.04922224245484</v>
+        <v>46.04922224245485</v>
       </c>
       <c r="S25" t="n">
-        <v>17.84803053756286</v>
+        <v>17.84803053756287</v>
       </c>
       <c r="T25" t="n">
-        <v>4.375886464608527</v>
+        <v>4.375886464608528</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05586238039925787</v>
+        <v>0.05586238039925788</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.283152565731808</v>
+        <v>2.283152565731809</v>
       </c>
       <c r="H26" t="n">
         <v>23.38233621380089</v>
       </c>
       <c r="I26" t="n">
-        <v>88.02123929037562</v>
+        <v>88.02123929037563</v>
       </c>
       <c r="J26" t="n">
-        <v>193.7797200757802</v>
+        <v>193.7797200757803</v>
       </c>
       <c r="K26" t="n">
-        <v>290.4255681832077</v>
+        <v>290.4255681832078</v>
       </c>
       <c r="L26" t="n">
-        <v>360.2985985167226</v>
+        <v>360.2985985167227</v>
       </c>
       <c r="M26" t="n">
-        <v>400.9016129575556</v>
+        <v>400.9016129575558</v>
       </c>
       <c r="N26" t="n">
-        <v>407.3886201849412</v>
+        <v>407.3886201849413</v>
       </c>
       <c r="O26" t="n">
-        <v>384.6855218594455</v>
+        <v>384.6855218594456</v>
       </c>
       <c r="P26" t="n">
-        <v>328.3201928929414</v>
+        <v>328.3201928929415</v>
       </c>
       <c r="Q26" t="n">
         <v>246.554791632671</v>
@@ -32973,10 +32973,10 @@
         <v>143.4190823571508</v>
       </c>
       <c r="S26" t="n">
-        <v>52.02733909161363</v>
+        <v>52.02733909161364</v>
       </c>
       <c r="T26" t="n">
-        <v>9.994500356490995</v>
+        <v>9.994500356490997</v>
       </c>
       <c r="U26" t="n">
         <v>0.1826522052585446</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.22159431854226</v>
+        <v>1.221594318542261</v>
       </c>
       <c r="H27" t="n">
         <v>11.79802933960552</v>
       </c>
       <c r="I27" t="n">
-        <v>42.0592780726173</v>
+        <v>42.05927807261731</v>
       </c>
       <c r="J27" t="n">
         <v>115.4138737531528</v>
       </c>
       <c r="K27" t="n">
-        <v>197.2606930954842</v>
+        <v>197.2606930954843</v>
       </c>
       <c r="L27" t="n">
         <v>265.2413453483974</v>
       </c>
       <c r="M27" t="n">
-        <v>309.5241393955542</v>
+        <v>309.5241393955543</v>
       </c>
       <c r="N27" t="n">
-        <v>317.7163223475329</v>
+        <v>317.716322347533</v>
       </c>
       <c r="O27" t="n">
-        <v>290.6483640261491</v>
+        <v>290.6483640261492</v>
       </c>
       <c r="P27" t="n">
         <v>233.2709361433901</v>
@@ -33049,16 +33049,16 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R27" t="n">
-        <v>75.84600514598353</v>
+        <v>75.84600514598354</v>
       </c>
       <c r="S27" t="n">
-        <v>22.69057867994065</v>
+        <v>22.69057867994066</v>
       </c>
       <c r="T27" t="n">
-        <v>4.923882362896214</v>
+        <v>4.923882362896215</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08036804727251716</v>
+        <v>0.08036804727251719</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,13 +33098,13 @@
         <v>1.02414364065306</v>
       </c>
       <c r="H28" t="n">
-        <v>9.105568005079029</v>
+        <v>9.10556800507903</v>
       </c>
       <c r="I28" t="n">
         <v>30.79879239345748</v>
       </c>
       <c r="J28" t="n">
-        <v>72.40695539417132</v>
+        <v>72.40695539417133</v>
       </c>
       <c r="K28" t="n">
         <v>118.9868702504191</v>
@@ -33119,25 +33119,25 @@
         <v>156.7219082101179</v>
       </c>
       <c r="O28" t="n">
-        <v>144.7580484079434</v>
+        <v>144.7580484079435</v>
       </c>
       <c r="P28" t="n">
         <v>123.8655181386209</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75806430959395</v>
+        <v>85.75806430959396</v>
       </c>
       <c r="R28" t="n">
-        <v>46.04922224245484</v>
+        <v>46.04922224245485</v>
       </c>
       <c r="S28" t="n">
-        <v>17.84803053756286</v>
+        <v>17.84803053756287</v>
       </c>
       <c r="T28" t="n">
-        <v>4.375886464608527</v>
+        <v>4.375886464608528</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05586238039925787</v>
+        <v>0.05586238039925788</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.427749017872291</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12.21247897686246</v>
+        <v>5.854634584812202</v>
       </c>
       <c r="M3" t="n">
         <v>15.05805425947912</v>
@@ -34792,7 +34792,7 @@
         <v>15.05805425947912</v>
       </c>
       <c r="O3" t="n">
-        <v>5.096577185897206</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P3" t="n">
         <v>8.770897105620062</v>
@@ -35026,13 +35026,13 @@
         <v>18.21830727030011</v>
       </c>
       <c r="N6" t="n">
-        <v>18.21830727030011</v>
+        <v>9.397206256252973</v>
       </c>
       <c r="O6" t="n">
         <v>16.42269341674558</v>
       </c>
       <c r="P6" t="n">
-        <v>1.186201470256887</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>6.601146109817527</v>
       </c>
       <c r="L8" t="n">
-        <v>14.24641283816826</v>
+        <v>14.24641283816825</v>
       </c>
       <c r="M8" t="n">
         <v>21.05014551947927</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L9" t="n">
         <v>16.17691886905386</v>
@@ -35263,7 +35263,7 @@
         <v>22.05496501936139</v>
       </c>
       <c r="N9" t="n">
-        <v>23.37323303668729</v>
+        <v>16.99711954026111</v>
       </c>
       <c r="O9" t="n">
         <v>19.22635746243337</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9900459625660538</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K11" t="n">
-        <v>9.812114391281035</v>
+        <v>35.17698580189472</v>
       </c>
       <c r="L11" t="n">
-        <v>18.22990292456158</v>
+        <v>49.69726882478401</v>
       </c>
       <c r="M11" t="n">
-        <v>25.48254577696013</v>
+        <v>60.49605345325834</v>
       </c>
       <c r="N11" t="n">
-        <v>26.65219704069187</v>
+        <v>62.23225987668787</v>
       </c>
       <c r="O11" t="n">
-        <v>22.97804525909444</v>
+        <v>56.57528966332809</v>
       </c>
       <c r="P11" t="n">
-        <v>13.94818694248848</v>
+        <v>42.62265774178104</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.567364757857206</v>
+        <v>24.10069815048838</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.580767567902672</v>
       </c>
       <c r="K12" t="n">
-        <v>8.557043476769884</v>
+        <v>25.78518267276229</v>
       </c>
       <c r="L12" t="n">
-        <v>19.10944837110222</v>
+        <v>42.27480760454341</v>
       </c>
       <c r="M12" t="n">
-        <v>25.47708862977113</v>
+        <v>52.50997021579066</v>
       </c>
       <c r="N12" t="n">
-        <v>28.51644670869021</v>
+        <v>56.26480823144204</v>
       </c>
       <c r="O12" t="n">
-        <v>22.43978899253371</v>
+        <v>47.82411870340098</v>
       </c>
       <c r="P12" t="n">
-        <v>14.8365521603905</v>
+        <v>35.20971467540036</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.724034716243118</v>
+        <v>15.34295432295098</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.099995097757429</v>
       </c>
       <c r="L13" t="n">
-        <v>1.975872558799875</v>
+        <v>15.27398492029074</v>
       </c>
       <c r="M13" t="n">
-        <v>2.618099757099376</v>
+        <v>16.6390947093549</v>
       </c>
       <c r="N13" t="n">
-        <v>3.845592610471343</v>
+        <v>17.53319964122687</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2178080624525869</v>
+        <v>12.86052855875074</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>7.87554500863677</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9900459625660289</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K14" t="n">
-        <v>9.812114391281</v>
+        <v>35.17698580189472</v>
       </c>
       <c r="L14" t="n">
-        <v>18.22990292456153</v>
+        <v>49.69726882478401</v>
       </c>
       <c r="M14" t="n">
-        <v>25.48254577696008</v>
+        <v>60.49605345325834</v>
       </c>
       <c r="N14" t="n">
-        <v>26.65219704069182</v>
+        <v>62.23225987668787</v>
       </c>
       <c r="O14" t="n">
-        <v>22.97804525909439</v>
+        <v>56.57528966332809</v>
       </c>
       <c r="P14" t="n">
-        <v>13.94818694248844</v>
+        <v>42.62265774178104</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.567364757857177</v>
+        <v>24.10069815048838</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.580767567902672</v>
       </c>
       <c r="K15" t="n">
-        <v>8.557043476769859</v>
+        <v>25.78518267276229</v>
       </c>
       <c r="L15" t="n">
-        <v>19.10944837110219</v>
+        <v>42.27480760454341</v>
       </c>
       <c r="M15" t="n">
-        <v>25.47708862977109</v>
+        <v>52.50997021579066</v>
       </c>
       <c r="N15" t="n">
-        <v>28.51644670869017</v>
+        <v>56.26480823144204</v>
       </c>
       <c r="O15" t="n">
-        <v>22.43978899253367</v>
+        <v>47.82411870340098</v>
       </c>
       <c r="P15" t="n">
-        <v>14.83655216039048</v>
+        <v>35.20971467540036</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.724034716243096</v>
+        <v>15.34295432295098</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.099995097757429</v>
       </c>
       <c r="L16" t="n">
-        <v>1.975872558799853</v>
+        <v>15.27398492029074</v>
       </c>
       <c r="M16" t="n">
-        <v>2.618099757099355</v>
+        <v>16.6390947093549</v>
       </c>
       <c r="N16" t="n">
-        <v>3.845592610471321</v>
+        <v>17.53319964122687</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2178080624525691</v>
+        <v>12.86052855875074</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>7.87554500863677</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.63762545808046</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K20" t="n">
-        <v>78.22600314077708</v>
+        <v>78.2260031407771</v>
       </c>
       <c r="L20" t="n">
         <v>103.1033814881739</v>
@@ -36138,13 +36138,13 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P20" t="n">
-        <v>91.28869553235683</v>
+        <v>91.28869553235685</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.64686578433748</v>
+        <v>60.64686578433749</v>
       </c>
       <c r="R20" t="n">
-        <v>21.25863298380405</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3356725733720012</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J21" t="n">
-        <v>24.68826221249549</v>
+        <v>24.6882622124955</v>
       </c>
       <c r="K21" t="n">
-        <v>55.02461586202806</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L21" t="n">
-        <v>81.59083389768521</v>
+        <v>81.59083389768523</v>
       </c>
       <c r="M21" t="n">
-        <v>98.38991848272939</v>
+        <v>98.3899184827294</v>
       </c>
       <c r="N21" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O21" t="n">
-        <v>90.90616048350529</v>
+        <v>90.9061604835053</v>
       </c>
       <c r="P21" t="n">
         <v>69.78685138382997</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.45685451960988</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R21" t="n">
-        <v>6.096263762754472</v>
+        <v>6.096263762754475</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.78261709730015</v>
+        <v>7.782617097300154</v>
       </c>
       <c r="K22" t="n">
         <v>25.73710560614897</v>
       </c>
       <c r="L22" t="n">
-        <v>37.84341412641243</v>
+        <v>37.84341412641244</v>
       </c>
       <c r="M22" t="n">
         <v>40.43539333973013</v>
@@ -36293,13 +36293,13 @@
         <v>40.76367547751443</v>
       </c>
       <c r="O22" t="n">
-        <v>34.31763295503178</v>
+        <v>34.3176329550318</v>
       </c>
       <c r="P22" t="n">
-        <v>26.23580464898426</v>
+        <v>26.23580464898427</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.040054754946542</v>
+        <v>9.040054754946549</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>53.47333674641212</v>
+        <v>53.47333674641213</v>
       </c>
       <c r="J23" t="n">
         <v>164.3597605901937</v>
       </c>
       <c r="K23" t="n">
-        <v>254.6609673883984</v>
+        <v>254.6609673883985</v>
       </c>
       <c r="L23" t="n">
         <v>321.9865560840997</v>
       </c>
       <c r="M23" t="n">
-        <v>363.4703500581238</v>
+        <v>363.4703500581239</v>
       </c>
       <c r="N23" t="n">
-        <v>370.1089973504952</v>
+        <v>370.1089973504953</v>
       </c>
       <c r="O23" t="n">
-        <v>347.2945625034214</v>
+        <v>347.2945625034215</v>
       </c>
       <c r="P23" t="n">
-        <v>290.7448310827101</v>
+        <v>290.7448310827102</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.4301170280729</v>
+        <v>210.430117028073</v>
       </c>
       <c r="R23" t="n">
-        <v>108.3864324623543</v>
+        <v>108.3864324623544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261731</v>
       </c>
       <c r="J24" t="n">
-        <v>94.80275941981945</v>
+        <v>94.80275941981948</v>
       </c>
       <c r="K24" t="n">
         <v>174.8614592621509</v>
       </c>
       <c r="L24" t="n">
-        <v>242.7262586341678</v>
+        <v>242.7262586341679</v>
       </c>
       <c r="M24" t="n">
-        <v>286.4273588832262</v>
+        <v>286.4273588832263</v>
       </c>
       <c r="N24" t="n">
-        <v>296.3732941339912</v>
+        <v>296.3732941339913</v>
       </c>
       <c r="O24" t="n">
-        <v>267.4764743039269</v>
+        <v>267.476474303927</v>
       </c>
       <c r="P24" t="n">
-        <v>211.5000949385614</v>
+        <v>211.5000949385615</v>
       </c>
       <c r="Q24" t="n">
         <v>133.1884048989774</v>
       </c>
       <c r="R24" t="n">
-        <v>52.17308575183938</v>
+        <v>52.17308575183939</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>51.77019941026946</v>
+        <v>51.77019941026947</v>
       </c>
       <c r="K25" t="n">
-        <v>98.02221579770709</v>
+        <v>98.02221579770712</v>
       </c>
       <c r="L25" t="n">
         <v>130.3434682792092</v>
@@ -36533,10 +36533,10 @@
         <v>122.258860909519</v>
       </c>
       <c r="P25" t="n">
-        <v>101.4847174806344</v>
+        <v>101.4847174806345</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.138501544809</v>
+        <v>61.13850154480902</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>53.47333674641212</v>
+        <v>53.47333674641213</v>
       </c>
       <c r="J26" t="n">
         <v>164.3597605901937</v>
       </c>
       <c r="K26" t="n">
-        <v>254.6609673883984</v>
+        <v>254.6609673883985</v>
       </c>
       <c r="L26" t="n">
         <v>321.9865560840997</v>
       </c>
       <c r="M26" t="n">
-        <v>363.4703500581238</v>
+        <v>363.4703500581239</v>
       </c>
       <c r="N26" t="n">
-        <v>370.1089973504952</v>
+        <v>370.1089973504953</v>
       </c>
       <c r="O26" t="n">
-        <v>347.2945625034214</v>
+        <v>347.2945625034215</v>
       </c>
       <c r="P26" t="n">
-        <v>290.7448310827101</v>
+        <v>290.7448310827102</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.4301170280729</v>
+        <v>210.430117028073</v>
       </c>
       <c r="R26" t="n">
-        <v>108.3864324623543</v>
+        <v>108.3864324623544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261731</v>
       </c>
       <c r="J27" t="n">
-        <v>94.80275941981945</v>
+        <v>94.80275941981948</v>
       </c>
       <c r="K27" t="n">
         <v>174.8614592621509</v>
       </c>
       <c r="L27" t="n">
-        <v>242.7262586341678</v>
+        <v>242.7262586341679</v>
       </c>
       <c r="M27" t="n">
-        <v>286.4273588832262</v>
+        <v>286.4273588832263</v>
       </c>
       <c r="N27" t="n">
-        <v>296.3732941339912</v>
+        <v>296.3732941339913</v>
       </c>
       <c r="O27" t="n">
-        <v>267.4764743039269</v>
+        <v>267.476474303927</v>
       </c>
       <c r="P27" t="n">
-        <v>211.5000949385614</v>
+        <v>211.5000949385615</v>
       </c>
       <c r="Q27" t="n">
         <v>133.1884048989774</v>
       </c>
       <c r="R27" t="n">
-        <v>52.17308575183938</v>
+        <v>52.17308575183939</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.77019941026946</v>
+        <v>51.77019941026947</v>
       </c>
       <c r="K28" t="n">
-        <v>98.02221579770709</v>
+        <v>98.02221579770712</v>
       </c>
       <c r="L28" t="n">
         <v>130.3434682792092</v>
@@ -36770,10 +36770,10 @@
         <v>122.258860909519</v>
       </c>
       <c r="P28" t="n">
-        <v>101.4847174806344</v>
+        <v>101.4847174806345</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.138501544809</v>
+        <v>61.13850154480902</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
